--- a/RT2020/Resources/Reports/Inventory/Journal/MonthlyPivot.xlsx
+++ b/RT2020/Resources/Reports/Inventory/Journal/MonthlyPivot.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RT2020\RT2020\Resources\Reports\Inventory\Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A485D01-11EA-42FA-874A-ECF1B4D24893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F51EB9E-DA3C-4414-838C-E6C699CE9579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="2145" windowWidth="27495" windowHeight="15810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9345" yWindow="8760" windowWidth="27495" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Pivot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="item">Sheet1!$A$7:$T$8</definedName>
+    <definedName name="item">Sheet1!$A$7:$AD$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>&lt;&lt;page&gt;&gt;</t>
   </si>
@@ -143,18 +143,9 @@
     <t>&lt;&lt;column&gt;&gt;&lt;&lt;sort&gt;&gt;&lt;&lt;sum&gt;&gt;</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>{{item.TxMonth}}</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>{{item.TxDay}}</t>
   </si>
   <si>
@@ -179,26 +170,94 @@
     <t>{{lblSelectedStockCode}}</t>
   </si>
   <si>
-    <t>&lt;&lt;pivot Name="Pivot" dst="Pivot!B6" columngrand mergelabels&gt;&gt;</t>
-  </si>
-  <si>
     <t>{{lblPrintedOn}}</t>
   </si>
   <si>
     <t>{{PrintedOn}}</t>
+  </si>
+  <si>
+    <t>&lt;&lt;pivot Name="Pivot" dst="Pivot!B6" columngrand mergelabels CaptionNoFormatting&gt;&gt;</t>
+  </si>
+  <si>
+    <t>{{lblYear}}</t>
+  </si>
+  <si>
+    <t>{{lblMonth}}</t>
+  </si>
+  <si>
+    <t>{{lblDay}}</t>
+  </si>
+  <si>
+    <t>{{lblClass1}}</t>
+  </si>
+  <si>
+    <t>{{item.CLASS1}}</t>
+  </si>
+  <si>
+    <t>{{lblClass2}}</t>
+  </si>
+  <si>
+    <t>{{lblClass3}}</t>
+  </si>
+  <si>
+    <t>{{lblClass4}}</t>
+  </si>
+  <si>
+    <t>{{lblClass5}}</t>
+  </si>
+  <si>
+    <t>{{lblClass6}}</t>
+  </si>
+  <si>
+    <t>{{item.CLASS2}}</t>
+  </si>
+  <si>
+    <t>{{item.CLASS3}}</t>
+  </si>
+  <si>
+    <t>{{item.CLASS4}}</t>
+  </si>
+  <si>
+    <t>{{item.CLASS5}}</t>
+  </si>
+  <si>
+    <t>{{item.CLASS6}}</t>
+  </si>
+  <si>
+    <t>{{lblBFQty}}</t>
+  </si>
+  <si>
+    <t>{{lblBFAmount}}</t>
+  </si>
+  <si>
+    <t>{{lblCDQty}}</t>
+  </si>
+  <si>
+    <t>{{item.BFQTY}}</t>
+  </si>
+  <si>
+    <t>{{item.BFAMT}}</t>
+  </si>
+  <si>
+    <t>{{item.CDQTY}}</t>
+  </si>
+  <si>
+    <t>{{item.CDAMT}}</t>
+  </si>
+  <si>
+    <t>{{lblCDAmount}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -265,6 +324,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -326,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -378,37 +443,48 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Custom" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -782,31 +858,31 @@
   <sheetPr codeName="Лист3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="8" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="8" customWidth="1"/>
-    <col min="15" max="16" width="14.33203125" style="8" customWidth="1"/>
-    <col min="17" max="18" width="7" style="8" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" customWidth="1"/>
+    <col min="3" max="15" width="10.83203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
+    <col min="17" max="19" width="10.83203125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="7.1640625" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="8" customWidth="1"/>
+    <col min="23" max="24" width="10.83203125" style="8" customWidth="1"/>
+    <col min="25" max="26" width="14.33203125" style="8" customWidth="1"/>
+    <col min="27" max="28" width="7" style="8" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" style="8" customWidth="1"/>
+    <col min="30" max="30" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
@@ -828,8 +904,18 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
@@ -851,8 +937,18 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -872,49 +968,69 @@
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25" t="s">
+      <c r="T4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="9"/>
+      <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -927,53 +1043,83 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="Q6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
@@ -986,55 +1132,85 @@
       <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="Q7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="R7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="U7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="V7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="W7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="X7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="Y7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="Z7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="AA7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="AB7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="AC7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="AD7" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>51</v>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -1046,55 +1222,88 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="2" t="s">
+      <c r="W8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S11" s="33"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1104,20 +1313,30 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="F7:J7">
+  <conditionalFormatting sqref="P7:T7">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"VISA"</formula>
     </cfRule>
@@ -1133,7 +1352,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1144,39 +1365,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="30" t="s">
+      <c r="I4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/RT2020/Resources/Reports/Inventory/Journal/MonthlyPivot.xlsx
+++ b/RT2020/Resources/Reports/Inventory/Journal/MonthlyPivot.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RT2020\RT2020\Resources\Reports\Inventory\Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F51EB9E-DA3C-4414-838C-E6C699CE9579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176E7AA-06DD-408C-9871-E81DFCE3097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="8760" windowWidth="27495" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2250" windowWidth="27495" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Pivot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="item">Sheet1!$A$7:$AD$8</definedName>
+    <definedName name="item">Sheet1!$A$7:$AA$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>&lt;&lt;page&gt;&gt;</t>
   </si>
@@ -143,15 +143,6 @@
     <t>&lt;&lt;column&gt;&gt;&lt;&lt;sort&gt;&gt;&lt;&lt;sum&gt;&gt;</t>
   </si>
   <si>
-    <t>{{item.TxMonth}}</t>
-  </si>
-  <si>
-    <t>{{item.TxDay}}</t>
-  </si>
-  <si>
-    <t>{{item.TxYear}}</t>
-  </si>
-  <si>
     <t>&lt;&lt;row&gt;&gt;</t>
   </si>
   <si>
@@ -176,18 +167,6 @@
     <t>{{PrintedOn}}</t>
   </si>
   <si>
-    <t>&lt;&lt;pivot Name="Pivot" dst="Pivot!B6" columngrand mergelabels CaptionNoFormatting&gt;&gt;</t>
-  </si>
-  <si>
-    <t>{{lblYear}}</t>
-  </si>
-  <si>
-    <t>{{lblMonth}}</t>
-  </si>
-  <si>
-    <t>{{lblDay}}</t>
-  </si>
-  <si>
     <t>{{lblClass1}}</t>
   </si>
   <si>
@@ -246,16 +225,20 @@
   </si>
   <si>
     <t>{{lblCDAmount}}</t>
+  </si>
+  <si>
+    <t>&lt;&lt;pivot Name="RT2020 Pivot" dst="Pivot!B6" columngrand mergelabels CaptionNoFormatting&gt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -440,9 +423,6 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -480,6 +460,9 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,11 +841,11 @@
   <sheetPr codeName="Лист3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -871,18 +854,17 @@
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="15" width="10.83203125" style="8" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="19" width="10.83203125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="8" customWidth="1"/>
-    <col min="23" max="24" width="10.83203125" style="8" customWidth="1"/>
-    <col min="25" max="26" width="14.33203125" style="8" customWidth="1"/>
-    <col min="27" max="28" width="7" style="8" customWidth="1"/>
-    <col min="29" max="29" width="7.6640625" style="8" customWidth="1"/>
-    <col min="30" max="30" width="20.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="8" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" style="8" customWidth="1"/>
+    <col min="22" max="23" width="14.33203125" style="8" customWidth="1"/>
+    <col min="24" max="25" width="7" style="8" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" style="8" customWidth="1"/>
+    <col min="27" max="27" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
@@ -911,11 +893,8 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
@@ -944,11 +923,8 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -975,62 +951,54 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
     </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
-      <c r="B4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31" t="s">
+      <c r="B4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="Y4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="AA4" s="9"/>
-      <c r="AB4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1044,82 +1012,73 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="P6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="S6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="V6" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
@@ -1133,84 +1092,75 @@
         <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="M7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="N7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="O7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="T7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="U7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="V7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="W7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="X7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="Y7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="17" t="s">
+      <c r="Z7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AD7" s="16" t="s">
+      <c r="AA7" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>50</v>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -1222,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>2</v>
@@ -1255,25 +1205,25 @@
         <v>2</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="R8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="U8" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>2</v>
@@ -1290,20 +1240,8 @@
       <c r="AA8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S11" s="33"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1320,9 +1258,9 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
@@ -1330,13 +1268,10 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="P7:T7">
+  <conditionalFormatting sqref="P7:Q7">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"VISA"</formula>
     </cfRule>
@@ -1365,37 +1300,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="I4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
